--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crawl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web-apps\crawlingcity\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="39">
   <si>
     <t>Pa's previstos</t>
   </si>
@@ -193,15 +193,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -679,7 +679,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>1</v>
       </c>
@@ -769,9 +769,6 @@
       </c>
       <c r="AE4">
         <v>30</v>
-      </c>
-      <c r="AF4">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -877,22 +874,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -907,66 +904,63 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="s">
         <v>21</v>
       </c>
       <c r="Z6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="s">
         <v>14</v>
       </c>
       <c r="AB6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1072,41 +1066,41 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1129,98 +1123,93 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B8:E8"/>
@@ -1229,6 +1218,11 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
